--- a/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F02FD52-121C-4500-AAE2-14229663D1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4646659D-E117-4C1E-84BB-318C886D727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D925718C-F17E-4FE6-A043-C28AB9B3BA4C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E44AF7BE-A312-4E97-80BC-6F58A04AB1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,97%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>16,22%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>83,78%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>12,84%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,55 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>84,89%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,25 +308,25 @@
     <t>16,44%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>19,0%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>22,56%</t>
@@ -335,19 +335,19 @@
     <t>83,56%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>79,38%</t>
@@ -356,55 +356,55 @@
     <t>77,44%</t>
   </si>
   <si>
-    <t>81,0%</t>
+    <t>81,01%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151F6DEA-3C35-4798-9524-EA91A0061936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4C39B-740B-4D84-ACB3-5B010FD75C31}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1626,7 @@
         <v>1171</v>
       </c>
       <c r="I17" s="7">
-        <v>870836</v>
+        <v>870837</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1677,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1724,7 +1724,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1248</v>
@@ -1733,7 +1733,7 @@
         <v>835803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>110</v>
@@ -1772,10 +1772,10 @@
         <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>4112</v>
@@ -1784,7 +1784,7 @@
         <v>2967849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>

--- a/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4646659D-E117-4C1E-84BB-318C886D727D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F58809E-7A9C-43C5-8D73-5F41C37324A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E44AF7BE-A312-4E97-80BC-6F58A04AB1D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71C5C447-B367-450C-A335-99C9922237E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,85%</t>
@@ -188,7 +188,7 @@
     <t>82,1%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>12,84%</t>
@@ -245,7 +245,7 @@
     <t>84,08%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>12,32%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4C39B-740B-4D84-ACB3-5B010FD75C31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB1408-D1C7-45AD-9EA8-59A58FEDBB62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F58809E-7A9C-43C5-8D73-5F41C37324A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{030AC7DE-F85C-4BE2-9BC5-23AAA5B22A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{71C5C447-B367-450C-A335-99C9922237E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F83F584A-F4E3-4BAE-B4CD-C18D2C67297C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,97%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>16,22%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,03%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>83,78%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,274 +137,274 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB1408-D1C7-45AD-9EA8-59A58FEDBB62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A36627-72F2-41AD-B3AE-927EBCA7C9BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,7 +1626,7 @@
         <v>1171</v>
       </c>
       <c r="I17" s="7">
-        <v>870837</v>
+        <v>870836</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1677,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1724,7 +1724,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
         <v>1248</v>
@@ -1733,7 +1733,7 @@
         <v>835803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>110</v>
@@ -1772,10 +1772,10 @@
         <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>4112</v>
@@ -1784,7 +1784,7 @@
         <v>2967849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>

--- a/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{030AC7DE-F85C-4BE2-9BC5-23AAA5B22A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A510325-0852-4D14-9A9E-50C1A679A582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F83F584A-F4E3-4BAE-B4CD-C18D2C67297C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{957103CB-9BEE-42E5-A61A-D418FD5B3311}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A36627-72F2-41AD-B3AE-927EBCA7C9BA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAFA491-686B-4548-A4F2-F6A4BBE43936}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>11072</v>
+        <v>86968</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="I4" s="7">
-        <v>21200</v>
+        <v>154495</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N4" s="7">
-        <v>32272</v>
+        <v>241463</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>89833</v>
+        <v>547444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>202</v>
+        <v>943</v>
       </c>
       <c r="I5" s="7">
-        <v>109533</v>
+        <v>520468</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>306</v>
+        <v>1566</v>
       </c>
       <c r="N5" s="7">
-        <v>199366</v>
+        <v>1067912</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674963</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1309375</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>81634</v>
+        <v>123738</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>146433</v>
+        <v>213764</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>346</v>
+        <v>504</v>
       </c>
       <c r="N7" s="7">
-        <v>228066</v>
+        <v>337503</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>519</v>
+        <v>819</v>
       </c>
       <c r="D8" s="7">
-        <v>468189</v>
+        <v>1068157</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>741</v>
+        <v>1155</v>
       </c>
       <c r="I8" s="7">
-        <v>445692</v>
+        <v>743696</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1260</v>
+        <v>1974</v>
       </c>
       <c r="N8" s="7">
-        <v>913882</v>
+        <v>1811852</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191895</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592125</v>
+        <v>957460</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141948</v>
+        <v>2149355</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>133275</v>
+        <v>83488</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>238951</v>
+        <v>138145</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>504</v>
+        <v>295</v>
       </c>
       <c r="N10" s="7">
-        <v>372227</v>
+        <v>221633</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>819</v>
+        <v>585</v>
       </c>
       <c r="D11" s="7">
-        <v>905001</v>
+        <v>621192</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1155</v>
+        <v>843</v>
       </c>
       <c r="I11" s="7">
-        <v>819803</v>
+        <v>795221</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1974</v>
+        <v>1428</v>
       </c>
       <c r="N11" s="7">
-        <v>1724803</v>
+        <v>1416413</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038276</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058754</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2097030</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>89791</v>
+        <v>148613</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="I13" s="7">
-        <v>152386</v>
+        <v>246550</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>295</v>
+        <v>568</v>
       </c>
       <c r="N13" s="7">
-        <v>242177</v>
+        <v>395163</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>585</v>
+        <v>827</v>
       </c>
       <c r="D14" s="7">
-        <v>638981</v>
+        <v>777202</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>843</v>
+        <v>1171</v>
       </c>
       <c r="I14" s="7">
-        <v>721985</v>
+        <v>846043</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1428</v>
+        <v>1998</v>
       </c>
       <c r="N14" s="7">
-        <v>1360965</v>
+        <v>1623245</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925815</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2018408</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="D16" s="7">
-        <v>158586</v>
+        <v>442807</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1248</v>
+      </c>
+      <c r="I16" s="7">
+        <v>752955</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>390</v>
-      </c>
-      <c r="I16" s="7">
-        <v>276833</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1767</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1195762</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>568</v>
-      </c>
-      <c r="N16" s="7">
-        <v>435419</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>827</v>
+        <v>2854</v>
       </c>
       <c r="D17" s="7">
-        <v>805780</v>
+        <v>3013995</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4112</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2905426</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1171</v>
-      </c>
-      <c r="I17" s="7">
-        <v>870836</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6966</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5919422</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1998</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1676616</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>964366</v>
+        <v>3456802</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3658381</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2112035</v>
+        <v>7115184</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>519</v>
-      </c>
-      <c r="D19" s="7">
-        <v>474359</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1248</v>
-      </c>
-      <c r="I19" s="7">
-        <v>835803</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1767</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1310162</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2854</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2907782</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4112</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2967849</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6966</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5875631</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382141</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803652</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7185793</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
